--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunai/百度云同步盘/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunai/Java/yunaiv.github.io/source/_drafts/Dubbo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +272,13 @@
     <t>博客是否覆盖</t>
     <rPh sb="0" eb="2">
       <t>bo'ke</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【缺】注解 + 外部化配置</t>
+    <rPh sb="0" eb="1">
+      <t>que</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,20 +347,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -681,10 +691,11 @@
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -704,129 +715,138 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
         <v>3957</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
         <v>23757</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
         <v>5867</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
         <v>3346</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="E7" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2">
         <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
         <v>529</v>
       </c>
     </row>
@@ -834,20 +854,20 @@
       <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
         <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
         <v>458</v>
       </c>
     </row>
@@ -855,11 +875,11 @@
       <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2">
         <v>2137</v>
       </c>
     </row>
@@ -867,47 +887,47 @@
       <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2">
         <v>2792</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2">
         <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2">
         <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2">
         <v>669</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2">
         <v>325</v>
       </c>
     </row>
@@ -915,74 +935,74 @@
       <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2">
         <v>9195</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2">
         <v>682</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2">
         <v>650</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2">
         <v>640</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2">
         <v>1139</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2">
         <v>1707</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2">
         <v>1434</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2">
         <v>695</v>
       </c>
     </row>
@@ -990,172 +1010,172 @@
       <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2">
         <v>5445</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="4"/>
+      <c r="B42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="2"/>
       <c r="D42">
         <v>1416</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="4"/>
+      <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="2"/>
       <c r="D43">
         <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="4"/>
+      <c r="B44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="2"/>
       <c r="D44">
         <v>651</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2"/>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="4"/>
+      <c r="B45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="2"/>
       <c r="D45">
         <v>366</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3" t="s">
+      <c r="A46" s="4"/>
+      <c r="B46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="2"/>
       <c r="D46">
         <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="4"/>
+      <c r="B47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="2"/>
       <c r="D47">
         <v>582</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="4"/>
+      <c r="B48" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="2"/>
       <c r="D48">
         <f>C41-SUM(D42:D47)</f>
         <v>2010</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2">
         <v>3182</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2">
         <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2">
         <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2">
         <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2">
         <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2">
         <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2">
         <v>900</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2">
         <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2">
         <v>1416</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2">
         <v>151</v>
       </c>
     </row>
@@ -1163,38 +1183,38 @@
       <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2">
         <v>1232</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2">
         <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2">
         <v>2746</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1202,11 +1222,11 @@
       <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2">
         <v>18518</v>
       </c>
     </row>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="36780" windowHeight="23540"/>
+    <workbookView xWindow="18400" yWindow="460" windowWidth="18380" windowHeight="23540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +278,35 @@
   </si>
   <si>
     <t>【缺】注解 + 外部化配置</t>
+    <rPh sb="0" eb="1">
+      <t>que</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> TCC-Transaction 源码分析 —— 调试环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCC-Transaction 源码分析 —— TCC 实现</t>
+  </si>
+  <si>
+    <t>TCC-Transaction 源码分析 —— 事务存储器</t>
+  </si>
+  <si>
+    <t>TCC-Transaction 源码分析 —— 事务恢复</t>
+  </si>
+  <si>
+    <t>TCC-Transaction 源码分析 —— 运维平台</t>
+  </si>
+  <si>
+    <t>TCC-Transaction 源码分析 —— Dubbo 支持</t>
+  </si>
+  <si>
+    <t>TCC-Transaction 源码分析 —— 项目实战</t>
+  </si>
+  <si>
+    <t>【合计】</t>
     <rPh sb="0" eb="1">
       <t>que</t>
     </rPh>
@@ -682,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1238,4 +1268,89 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="62" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>43270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4">
+        <v>17591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>11989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6">
+        <v>10240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>40401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8">
+        <v>30091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B2:B8)</f>
+        <v>157359</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18400" yWindow="460" windowWidth="18380" windowHeight="23540" activeTab="1"/>
+    <workbookView xWindow="18400" yWindow="460" windowWidth="18380" windowHeight="23540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +309,20 @@
     <t>【合计】</t>
     <rPh sb="0" eb="1">
       <t>que</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <rPh sb="0" eb="2">
+      <t>biao'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字数</t>
+    <rPh sb="0" eb="2">
+      <t>zi'shu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -712,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
@@ -1272,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1283,6 +1297,14 @@
     <col min="1" max="1" width="62" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>59</v>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18400" yWindow="460" windowWidth="18380" windowHeight="23540"/>
+    <workbookView xWindow="18460" yWindow="460" windowWidth="18440" windowHeight="23540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="3" r:id="rId2"/>
+    <sheet name="tcc 文章统计" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +325,70 @@
     <rPh sb="0" eb="2">
       <t>zi'shu</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExtensionFactory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringExtensionFactory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpiExtensionFactory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compiler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>javassist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JdkCompiler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavassistComiler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegistryFactory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zookeeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multicast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZookeeperRegistryFactory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MulticastRegistryFactory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protocol</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,11 +469,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -737,6 +802,7 @@
     <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -791,7 +857,7 @@
       <c r="C6" s="2">
         <v>5867</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.9</v>
       </c>
     </row>
@@ -803,7 +869,7 @@
       <c r="C7" s="2">
         <v>3346</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.3</v>
       </c>
       <c r="G7" t="s">
@@ -1054,7 +1120,7 @@
       <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B41" s="2"/>
@@ -1063,7 +1129,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="4"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="2" t="s">
         <v>49</v>
       </c>
@@ -1073,7 +1139,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="4"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
@@ -1083,7 +1149,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="4"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="2" t="s">
         <v>51</v>
       </c>
@@ -1093,7 +1159,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="4"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="2" t="s">
         <v>52</v>
       </c>
@@ -1103,7 +1169,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="4"/>
+      <c r="A46" s="5"/>
       <c r="B46" s="2" t="s">
         <v>53</v>
       </c>
@@ -1113,7 +1179,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="4"/>
+      <c r="A47" s="5"/>
       <c r="B47" s="2" t="s">
         <v>54</v>
       </c>
@@ -1123,7 +1189,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="4"/>
+      <c r="A48" s="5"/>
       <c r="B48" s="2" t="s">
         <v>55</v>
       </c>
@@ -1285,6 +1351,94 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18460" yWindow="460" windowWidth="18440" windowHeight="23540" activeTab="1"/>
+    <workbookView xWindow="18360" yWindow="460" windowWidth="18440" windowHeight="23540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,6 +389,83 @@
   </si>
   <si>
     <t>Protocol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beanutil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bytecode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compiler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concurrent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serialize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threadpool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utils</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ROOT】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <rPh sb="0" eb="1">
+      <t>fou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃</t>
+    <rPh sb="0" eb="1">
+      <t>fou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>s</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +473,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -412,8 +489,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,6 +518,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +557,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -474,6 +575,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,17 +905,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.83203125" customWidth="1"/>
@@ -847,502 +964,661 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
+      <c r="A5" s="6"/>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5">
+        <v>635</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6"/>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6"/>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6"/>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9">
+        <v>1804</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6"/>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10">
+        <v>3225</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6"/>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6"/>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6"/>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="6"/>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6"/>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6"/>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17">
+        <v>5194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6"/>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18">
+        <f>C4-SUM(D5:D17)</f>
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
-        <v>5867</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2">
-        <v>3346</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>5867</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2">
+        <v>3346</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2">
-        <v>2137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2">
-        <v>2792</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="2">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="2">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="2">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2">
-        <v>9195</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="5" t="s">
-        <v>34</v>
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2">
-        <v>5445</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="5"/>
-      <c r="B42" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="5"/>
-      <c r="B43" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="5"/>
-      <c r="B44" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="5"/>
-      <c r="B45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="5"/>
-      <c r="B46" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="5"/>
-      <c r="B47" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="5"/>
-      <c r="B48" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48">
-        <f>C41-SUM(D42:D47)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2">
+        <v>9195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2">
-        <v>3182</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="3" t="s">
-        <v>40</v>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="5"/>
+      <c r="B55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55">
         <v>1416</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+    <row r="56" spans="1:4">
+      <c r="A56" s="5"/>
+      <c r="B56" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="5"/>
+      <c r="B57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="5"/>
+      <c r="B58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="5"/>
+      <c r="B59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="5"/>
+      <c r="B60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="5"/>
+      <c r="B61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61">
+        <f>C54-SUM(D55:D60)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2">
-        <v>2746</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2">
+        <v>156</v>
+      </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2">
         <v>18518</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="A54:A61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1354,7 +1630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18360" yWindow="460" windowWidth="18440" windowHeight="23540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="36780" windowHeight="23540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1502,7 +1502,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:5">
       <c r="A65" s="3" t="s">
         <v>38</v>
       </c>
@@ -1510,8 +1510,11 @@
       <c r="C65" s="2">
         <v>208</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="E65" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
         <v>39</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:5">
       <c r="A67" s="3" t="s">
         <v>40</v>
       </c>
@@ -1529,7 +1532,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:5">
       <c r="A68" s="3" t="s">
         <v>44</v>
       </c>
@@ -1538,7 +1541,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:5">
       <c r="A69" s="3" t="s">
         <v>41</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:5">
       <c r="A70" s="3" t="s">
         <v>42</v>
       </c>
@@ -1556,7 +1559,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:5">
       <c r="A71" s="3" t="s">
         <v>43</v>
       </c>
@@ -1565,10 +1568,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:5">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:5">
       <c r="A73" s="3" t="s">
         <v>45</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:5">
       <c r="A74" s="3" t="s">
         <v>46</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:5">
       <c r="A75" s="3" t="s">
         <v>47</v>
       </c>
@@ -1595,7 +1598,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:5">
       <c r="A76" s="3" t="s">
         <v>48</v>
       </c>
@@ -1604,10 +1607,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:5">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
         <v>20</v>
       </c>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,13 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>博客是否覆盖</t>
-    <rPh sb="0" eb="2">
-      <t>bo'ke</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>【缺】注解 + 外部化配置</t>
     <rPh sb="0" eb="1">
       <t>que</t>
@@ -445,13 +438,6 @@
   </si>
   <si>
     <t>【ROOT】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <rPh sb="0" eb="1">
-      <t>fou</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -905,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -918,11 +904,10 @@
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -938,11 +923,8 @@
       <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -951,10 +933,10 @@
         <v>3957</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -963,155 +945,146 @@
         <v>23757</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:5">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5">
         <v>635</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:5">
       <c r="A6" s="6"/>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6">
         <v>1279</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:5">
       <c r="A7" s="6"/>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7">
         <v>987</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:5">
       <c r="A8" s="6"/>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8">
         <v>378</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:5">
       <c r="A9" s="6"/>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9">
         <v>1804</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10">
         <v>1294</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:5">
       <c r="A11" s="6"/>
       <c r="B11" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10">
         <v>3225</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="6"/>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12">
         <v>1344</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:5">
       <c r="A13" s="6"/>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13">
         <v>5197</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:5">
       <c r="A14" s="6"/>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14">
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:5">
       <c r="A15" s="6"/>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:5">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:6">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17">
         <v>5194</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:6">
       <c r="A18" s="6"/>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18">
@@ -1119,7 +1092,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -1130,11 +1103,8 @@
       <c r="E19" s="4">
         <v>0.9</v>
       </c>
-      <c r="F19" s="4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -1145,17 +1115,14 @@
       <c r="E20" s="4">
         <v>0.3</v>
       </c>
-      <c r="F20" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1164,7 +1131,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
@@ -1173,7 +1140,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
@@ -1182,7 +1149,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>11</v>
       </c>
@@ -1191,34 +1158,34 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:6">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:6">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -1227,7 +1194,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
         <v>16</v>
       </c>
@@ -1645,70 +1612,70 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1732,15 +1699,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
         <v>67</v>
-      </c>
-      <c r="B1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>3777</v>
@@ -1748,7 +1715,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>43270</v>
@@ -1756,7 +1723,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>17591</v>
@@ -1764,7 +1731,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>11989</v>
@@ -1772,7 +1739,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <v>10240</v>
@@ -1780,7 +1747,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7">
         <v>40401</v>
@@ -1788,7 +1755,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8">
         <v>30091</v>
@@ -1796,7 +1763,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12">
         <f>SUM(B2:B8)</f>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -459,7 +459,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -488,6 +488,14 @@
       <strike/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -543,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -559,9 +567,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -575,6 +580,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -893,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -946,51 +957,51 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="6"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="6"/>
       <c r="D5">
         <v>635</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="6"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="6"/>
       <c r="D6">
         <v>1279</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="6"/>
       <c r="D7">
         <v>987</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="6"/>
       <c r="D8">
         <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="6"/>
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="6"/>
       <c r="D9">
         <v>1804</v>
       </c>
@@ -999,94 +1010,94 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="6"/>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="6"/>
       <c r="D10">
         <v>1294</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10">
+      <c r="C11" s="8"/>
+      <c r="D11" s="9">
         <v>3225</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="6"/>
+      <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="6"/>
       <c r="D12">
         <v>1344</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="6"/>
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="6"/>
       <c r="D13">
         <v>5197</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="6"/>
+      <c r="A14" s="5"/>
       <c r="B14" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="6"/>
       <c r="D14">
         <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="6"/>
+      <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="6"/>
       <c r="D15">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="6"/>
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="6"/>
       <c r="D16">
         <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="6"/>
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="6"/>
       <c r="D17">
         <v>5194</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="6"/>
+      <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18">
         <f>C4-SUM(D5:D17)</f>
         <v>1789</v>
@@ -1323,7 +1334,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
         <v>30</v>
       </c>
@@ -1332,7 +1343,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="A50" s="3" t="s">
         <v>31</v>
       </c>
@@ -1341,7 +1352,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
         <v>32</v>
       </c>
@@ -1350,7 +1361,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
         <v>33</v>
       </c>
@@ -1359,11 +1370,11 @@
         <v>695</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:5">
+      <c r="A54" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B54" s="2"/>
@@ -1371,8 +1382,8 @@
         <v>5445</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="5"/>
+    <row r="55" spans="1:5">
+      <c r="A55" s="10"/>
       <c r="B55" s="2" t="s">
         <v>49</v>
       </c>
@@ -1381,8 +1392,8 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="5"/>
+    <row r="56" spans="1:5">
+      <c r="A56" s="10"/>
       <c r="B56" s="2" t="s">
         <v>50</v>
       </c>
@@ -1391,8 +1402,8 @@
         <v>292</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="5"/>
+    <row r="57" spans="1:5">
+      <c r="A57" s="10"/>
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
@@ -1401,8 +1412,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="5"/>
+    <row r="58" spans="1:5">
+      <c r="A58" s="10"/>
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
@@ -1411,8 +1422,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="5"/>
+    <row r="59" spans="1:5">
+      <c r="A59" s="10"/>
       <c r="B59" s="2" t="s">
         <v>53</v>
       </c>
@@ -1421,8 +1432,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="5"/>
+    <row r="60" spans="1:5">
+      <c r="A60" s="10"/>
       <c r="B60" s="2" t="s">
         <v>54</v>
       </c>
@@ -1431,8 +1442,8 @@
         <v>582</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="5"/>
+    <row r="61" spans="1:5">
+      <c r="A61" s="10"/>
       <c r="B61" s="2" t="s">
         <v>55</v>
       </c>
@@ -1442,7 +1453,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5">
       <c r="A62" s="3" t="s">
         <v>35</v>
       </c>
@@ -1450,8 +1461,11 @@
       <c r="C62" s="2">
         <v>3182</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" s="11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="3" t="s">
         <v>36</v>
       </c>
@@ -1460,7 +1474,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:5">
       <c r="A64" s="3" t="s">
         <v>37</v>
       </c>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1214,10 +1214,10 @@
         <v>529</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:5">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -1235,10 +1235,10 @@
         <v>458</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:5">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
@@ -1247,10 +1247,10 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:5">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
         <v>25</v>
       </c>
@@ -1258,8 +1258,11 @@
       <c r="C39" s="2">
         <v>2792</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="E39" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
         <v>21</v>
       </c>
@@ -1268,7 +1271,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
         <v>22</v>
       </c>
@@ -1277,7 +1280,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
         <v>23</v>
       </c>
@@ -1286,19 +1289,16 @@
         <v>669</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="3" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2">
         <v>325</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>9195</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
         <v>27</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
         <v>28</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
         <v>29</v>
       </c>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -448,10 +448,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <rPh sb="0" eb="1">
-      <t>s</t>
-    </rPh>
+    <t>RegistryProtocol
+RegistryDirectory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,7 +500,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,6 +516,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,7 +555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -587,6 +591,21 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -904,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -998,15 +1017,15 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5"/>
-      <c r="B9" t="s">
+      <c r="B9" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9">
+      <c r="C9" s="13"/>
+      <c r="D9" s="12">
         <v>1804</v>
       </c>
-      <c r="E9" t="s">
-        <v>99</v>
+      <c r="E9" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1214,10 +1233,10 @@
         <v>529</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
@@ -1226,7 +1245,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -1235,10 +1254,10 @@
         <v>458</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
@@ -1247,22 +1266,26 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6" ht="32">
       <c r="A39" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15">
         <v>2792</v>
       </c>
-      <c r="E39" s="4">
+      <c r="D39" s="12"/>
+      <c r="E39" s="14">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
         <v>21</v>
       </c>
@@ -1271,7 +1294,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
         <v>22</v>
       </c>
@@ -1280,7 +1303,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
         <v>23</v>
       </c>
@@ -1289,16 +1312,21 @@
         <v>669</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="3" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="2">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
@@ -1307,7 +1335,7 @@
         <v>9195</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
         <v>27</v>
       </c>
@@ -1316,7 +1344,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
         <v>28</v>
       </c>
@@ -1325,7 +1353,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
         <v>29</v>
       </c>
@@ -1369,9 +1397,6 @@
       <c r="C52" s="2">
         <v>695</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="10" t="s">

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -923,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1393,9 +1393,13 @@
       <c r="A52" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2">
+      <c r="B52" s="15"/>
+      <c r="C52" s="15">
         <v>695</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5">

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -923,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:E52"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1126,11 +1126,12 @@
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15">
         <v>5867</v>
       </c>
-      <c r="E19" s="4">
+      <c r="D19" s="12"/>
+      <c r="E19" s="14">
         <v>0.9</v>
       </c>
     </row>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="36780" windowHeight="23540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="36780" windowHeight="23540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="3" r:id="rId2"/>
-    <sheet name="tcc 文章统计" sheetId="2" r:id="rId3"/>
+    <sheet name="工作表3" sheetId="4" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="3" r:id="rId3"/>
+    <sheet name="tcc 文章统计" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,6 +451,59 @@
   <si>
     <t>RegistryProtocol
 RegistryDirectory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存</t>
+    <rPh sb="0" eb="2">
+      <t>nei'cun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬盘</t>
+    <rPh sb="0" eb="2">
+      <t>ying'pan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点</t>
+    <rPh sb="0" eb="2">
+      <t>jie'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建方式</t>
+    <rPh sb="0" eb="2">
+      <t>da'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自建</t>
+    <rPh sb="0" eb="2">
+      <t>zi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云</t>
+    <rPh sb="0" eb="3">
+      <t>a'li'yun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发环境</t>
+    <rPh sb="0" eb="2">
+      <t>kai'fa</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,7 +609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -606,6 +660,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1641,6 +1698,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="C1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C15"/>
   <sheetViews>
@@ -1728,7 +1839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="36780" windowHeight="23540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="37060" windowHeight="23540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -503,6 +503,20 @@
     <t>开发环境</t>
     <rPh sb="0" eb="2">
       <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mixin 暂时没看</t>
+    <rPh sb="0" eb="2">
+      <t>zan'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地存根 StubProxyFactory</t>
+    <rPh sb="0" eb="2">
+      <t>ben'di</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -640,9 +654,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -660,6 +671,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -980,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -991,10 +1005,10 @@
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" customWidth="1"/>
+    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1011,7 +1025,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1020,10 +1034,10 @@
         <v>3957</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1032,7 +1046,7 @@
         <v>23757</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>84</v>
@@ -1042,27 +1056,36 @@
         <v>635</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="5"/>
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6">
+      <c r="C6" s="12"/>
+      <c r="D6" s="11">
         <v>1279</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="5"/>
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7">
+      <c r="C7" s="12"/>
+      <c r="D7" s="11">
         <v>987</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>87</v>
@@ -1072,20 +1095,20 @@
         <v>378</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="5"/>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12">
+      <c r="C9" s="12"/>
+      <c r="D9" s="11">
         <v>1804</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>89</v>
@@ -1095,7 +1118,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
         <v>90</v>
@@ -1108,7 +1131,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>91</v>
@@ -1118,7 +1141,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>92</v>
@@ -1128,7 +1151,7 @@
         <v>5197</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="5"/>
       <c r="B14" t="s">
         <v>93</v>
@@ -1138,7 +1161,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>94</v>
@@ -1148,7 +1171,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>95</v>
@@ -1183,12 +1206,12 @@
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14">
         <v>5867</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="14">
+      <c r="D19" s="11"/>
+      <c r="E19" s="13">
         <v>0.9</v>
       </c>
     </row>
@@ -1331,15 +1354,15 @@
       <c r="A39" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14">
         <v>2792</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="14">
+      <c r="D39" s="11"/>
+      <c r="E39" s="13">
         <v>0.8</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="15" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1420,7 +1443,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
         <v>30</v>
       </c>
@@ -1429,7 +1452,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
         <v>31</v>
       </c>
@@ -1438,7 +1461,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
         <v>32</v>
       </c>
@@ -1447,21 +1470,21 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14">
         <v>695</v>
       </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="14">
+      <c r="D52" s="11"/>
+      <c r="E52" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="10" t="s">
+    <row r="54" spans="1:6">
+      <c r="A54" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B54" s="2"/>
@@ -1469,8 +1492,8 @@
         <v>5445</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="10"/>
+    <row r="55" spans="1:6">
+      <c r="A55" s="16"/>
       <c r="B55" s="2" t="s">
         <v>49</v>
       </c>
@@ -1479,8 +1502,8 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="10"/>
+    <row r="56" spans="1:6">
+      <c r="A56" s="16"/>
       <c r="B56" s="2" t="s">
         <v>50</v>
       </c>
@@ -1489,8 +1512,8 @@
         <v>292</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="10"/>
+    <row r="57" spans="1:6">
+      <c r="A57" s="16"/>
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
@@ -1499,18 +1522,24 @@
         <v>651</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="10"/>
-      <c r="B58" s="2" t="s">
+    <row r="58" spans="1:6">
+      <c r="A58" s="16"/>
+      <c r="B58" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58">
+      <c r="C58" s="14"/>
+      <c r="D58" s="11">
         <v>366</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="10"/>
+      <c r="E58" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="F58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="16"/>
       <c r="B59" s="2" t="s">
         <v>53</v>
       </c>
@@ -1519,8 +1548,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="10"/>
+    <row r="60" spans="1:6">
+      <c r="A60" s="16"/>
       <c r="B60" s="2" t="s">
         <v>54</v>
       </c>
@@ -1529,8 +1558,8 @@
         <v>582</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="10"/>
+    <row r="61" spans="1:6">
+      <c r="A61" s="16"/>
       <c r="B61" s="2" t="s">
         <v>55</v>
       </c>
@@ -1540,7 +1569,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
         <v>35</v>
       </c>
@@ -1548,11 +1577,11 @@
       <c r="C62" s="2">
         <v>3182</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="10">
         <v>0.6</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
         <v>36</v>
       </c>
@@ -1561,7 +1590,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
         <v>37</v>
       </c>
@@ -1701,7 +1730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="37060" windowHeight="23540"/>
+    <workbookView xWindow="10300" yWindow="460" windowWidth="26540" windowHeight="23540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表3" sheetId="4" r:id="rId2"/>
+    <sheet name="协议" sheetId="4" r:id="rId2"/>
     <sheet name="工作表2" sheetId="3" r:id="rId3"/>
     <sheet name="tcc 文章统计" sheetId="2" r:id="rId4"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,59 +454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cpu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存</t>
-    <rPh sb="0" eb="2">
-      <t>nei'cun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬盘</t>
-    <rPh sb="0" eb="2">
-      <t>ying'pan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点</t>
-    <rPh sb="0" eb="2">
-      <t>jie'dian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搭建方式</t>
-    <rPh sb="0" eb="2">
-      <t>da'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自建</t>
-    <rPh sb="0" eb="2">
-      <t>zi'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里云</t>
-    <rPh sb="0" eb="3">
-      <t>a'li'yun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发环境</t>
-    <rPh sb="0" eb="2">
-      <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mixin 暂时没看</t>
     <rPh sb="0" eb="2">
       <t>zan'shi</t>
@@ -517,6 +464,59 @@
     <t>本地存根 StubProxyFactory</t>
     <rPh sb="0" eb="2">
       <t>ben'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dubbo-api-default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>what???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dubbo-remoting-grizzly
+dubbo-remoting-mina
+dubbo-remoting-netty
+dubbo-remoting-netty4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dubbo-remoting-http
+hessian
+httpclient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dubbo-remoting-http
+spring-web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xmemcached</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jedis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dubbo-rpc-default ???
+dubbo-remoting-netty
+libthrift
+dubbo-registry-multicast ???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cxf-rt-frontend-simple
+cxf-rt-transports-http</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器 &amp;&amp; 客户端</t>
+    <rPh sb="0" eb="3">
+      <t>fu'wu'qi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -623,7 +623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,9 +673,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -994,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1069,7 +1066,7 @@
         <v>0.99</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1469,6 +1466,9 @@
       <c r="C51" s="2">
         <v>1434</v>
       </c>
+      <c r="F51" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="3" t="s">
@@ -1535,7 +1535,7 @@
         <v>0.6</v>
       </c>
       <c r="F58" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1728,53 +1728,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:6">
-      <c r="C1" s="17" t="s">
+    <row r="1" spans="1:2">
+      <c r="B1" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="64">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="48">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="32">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" spans="2:6">
-      <c r="B2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
-        <v>106</v>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="64">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="32">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:F1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10300" yWindow="460" windowWidth="26540" windowHeight="23540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="36780" windowHeight="23540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,9 @@
     <sheet name="工作表2" sheetId="3" r:id="rId3"/>
     <sheet name="tcc 文章统计" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="113">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -518,6 +521,10 @@
     <rPh sb="0" eb="3">
       <t>fu'wu'qi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbstractProxyProtocol</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1394,9 +1401,13 @@
       <c r="A43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14">
         <v>325</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1504,22 +1515,31 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="16"/>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56">
+      <c r="C56" s="14"/>
+      <c r="D56" s="11">
         <v>292</v>
+      </c>
+      <c r="E56" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="16"/>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57">
+      <c r="C57" s="14"/>
+      <c r="D57" s="11">
         <v>651</v>
+      </c>
+      <c r="E57" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1603,12 +1623,13 @@
       <c r="A65" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14">
         <v>208</v>
       </c>
-      <c r="E65" s="4">
-        <v>0.6</v>
+      <c r="D65" s="11"/>
+      <c r="E65" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1717,6 +1738,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1"/>
   <mergeCells count="1">
     <mergeCell ref="A54:A61"/>
   </mergeCells>
@@ -1730,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -998,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1177,12 +1177,15 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5"/>
-      <c r="B16" t="s">
+      <c r="B16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16">
+      <c r="C16" s="12"/>
+      <c r="D16" s="11">
         <v>300</v>
+      </c>
+      <c r="E16" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6">

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -999,7 +999,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:E16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1167,13 +1167,17 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5"/>
-      <c r="B15" t="s">
+      <c r="B15" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15">
+      <c r="C15" s="12"/>
+      <c r="D15" s="11">
         <v>81</v>
       </c>
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5"/>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -999,7 +999,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="36780" windowHeight="23540"/>
+    <workbookView xWindow="9580" yWindow="460" windowWidth="27200" windowHeight="23540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -998,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="114">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -475,10 +475,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>what???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dubbo-remoting-grizzly
 dubbo-remoting-mina
 dubbo-remoting-netty
@@ -525,6 +521,17 @@
   </si>
   <si>
     <t>AbstractProxyProtocol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>what??? Multicast 注册中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不写</t>
+    <rPh sb="0" eb="2">
+      <t>bu'xie</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -998,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1287,22 +1294,34 @@
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1"/>
@@ -1426,9 +1445,13 @@
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14">
         <v>9195</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1439,6 +1462,9 @@
       <c r="C46" s="2">
         <v>682</v>
       </c>
+      <c r="E46" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
@@ -1457,23 +1483,34 @@
       <c r="C48" s="2">
         <v>640</v>
       </c>
+      <c r="E48" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14">
         <v>1139</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14">
         <v>1707</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1485,7 +1522,7 @@
         <v>1434</v>
       </c>
       <c r="F51" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1546,7 +1583,7 @@
         <v>0.8</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1771,7 +1808,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="64">
@@ -1779,7 +1816,7 @@
         <v>102</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48">
@@ -1787,7 +1824,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32">
@@ -1795,7 +1832,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1808,7 +1845,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1816,7 +1853,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1834,7 +1871,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="32">
@@ -1842,7 +1879,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -582,7 +582,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,6 +604,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,7 +643,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,6 +694,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1409,9 +1421,13 @@
       <c r="A41" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17">
         <v>461</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1458,11 +1474,12 @@
       <c r="A46" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2">
+      <c r="B46" s="17"/>
+      <c r="C46" s="17">
         <v>682</v>
       </c>
-      <c r="E46" t="s">
+      <c r="D46" s="18"/>
+      <c r="E46" s="18" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1479,11 +1496,12 @@
       <c r="A48" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17">
         <v>640</v>
       </c>
-      <c r="E48" t="s">
+      <c r="D48" s="18"/>
+      <c r="E48" s="18" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1517,9 +1535,13 @@
       <c r="A51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17">
         <v>1434</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="F51" t="s">
         <v>112</v>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -18,7 +18,7 @@
     <sheet name="tcc 文章统计" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$F$67</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -614,7 +614,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -637,13 +637,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -659,9 +677,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -700,6 +715,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,10 +1039,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F78"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1058,755 +1083,735 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
+      <c r="A3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
+        <v>23757</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2">
-        <v>23757</v>
+      <c r="A4" s="19"/>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4">
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5">
-        <v>635</v>
+      <c r="A5" s="19"/>
+      <c r="B5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10">
+        <v>1279</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="F5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11">
-        <v>1279</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0.99</v>
-      </c>
-      <c r="F6" t="s">
-        <v>100</v>
+      <c r="A6" s="19"/>
+      <c r="B6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10">
+        <v>987</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11">
-        <v>987</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8">
+      <c r="C7" s="5"/>
+      <c r="D7">
         <v>378</v>
       </c>
     </row>
+    <row r="8" spans="1:6" hidden="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10">
+        <v>1804</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+    </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11">
-        <v>1804</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="A9" s="19"/>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8">
+        <v>3225</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="19"/>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="19"/>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="19"/>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10">
+        <v>81</v>
+      </c>
+      <c r="E14" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9">
-        <v>3225</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13">
-        <v>5197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11">
-        <v>81</v>
-      </c>
-      <c r="E15" s="13">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" hidden="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10">
+        <v>300</v>
+      </c>
+      <c r="E15" s="12">
         <v>1</v>
       </c>
-      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11">
-        <v>300</v>
-      </c>
-      <c r="E16" s="13">
-        <v>1</v>
+      <c r="A16" s="19"/>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16">
+        <v>5194</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5"/>
+      <c r="A17" s="20"/>
       <c r="B17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="C17" s="5"/>
       <c r="D17">
-        <v>5194</v>
+        <f>C3-SUM(D4:D16)</f>
+        <v>1789</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5"/>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18">
-        <f>C4-SUM(D5:D17)</f>
-        <v>1789</v>
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13">
+        <v>5867</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="12">
+        <v>0.9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14">
-        <v>5867</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="13">
-        <v>0.9</v>
+        <v>7</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
+        <v>3346</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2">
-        <v>3346</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
+        <v>98</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2">
-        <v>140</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1">
       <c r="A24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1">
       <c r="A25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1">
+      <c r="A26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="13">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2">
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="13">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2">
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="13">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2">
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="1"/>
+      <c r="A30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2">
+        <v>458</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="32">
       <c r="A32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2">
-        <v>529</v>
+        <v>25</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13">
+        <v>2792</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="A33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1">
       <c r="A34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2">
-        <v>426</v>
+        <v>22</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16">
+        <v>461</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1">
+      <c r="A36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13">
+        <v>325</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1">
       <c r="A37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2">
-        <v>2137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" ht="32">
+        <v>26</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13">
+        <v>9195</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1">
+      <c r="A38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16">
+        <v>682</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14">
-        <v>2792</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="13">
+        <v>28</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" hidden="1">
+      <c r="A40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16">
+        <v>640</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1">
+      <c r="A41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13">
+        <v>1139</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1">
+      <c r="A42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13">
+        <v>1707</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1">
+      <c r="A43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16">
+        <v>1434</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1">
+      <c r="A44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13">
+        <v>695</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="15"/>
+      <c r="B46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1">
+      <c r="A47" s="15"/>
+      <c r="B47" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="10">
+        <v>292</v>
+      </c>
+      <c r="E47" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="15"/>
+      <c r="B48" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="10">
+        <v>651</v>
+      </c>
+      <c r="E48" s="12">
         <v>0.8</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17">
-        <v>461</v>
-      </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14">
-        <v>325</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14">
-        <v>9195</v>
-      </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17">
-        <v>682</v>
-      </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17">
-        <v>640</v>
-      </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18" t="s">
-        <v>113</v>
+      <c r="F48" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14">
-        <v>1139</v>
-      </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="13">
-        <v>1</v>
+      <c r="A49" s="15"/>
+      <c r="B49" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="10">
+        <v>366</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14">
-        <v>1707</v>
-      </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="13">
-        <v>1</v>
+      <c r="A50" s="15"/>
+      <c r="B50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50">
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17">
-        <v>1434</v>
-      </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="F51" t="s">
-        <v>112</v>
+      <c r="A51" s="15"/>
+      <c r="B51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51">
+        <v>582</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14">
-        <v>695</v>
-      </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="13">
-        <v>1</v>
+      <c r="A52" s="15"/>
+      <c r="B52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52">
+        <f>C45-SUM(D46:D51)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2">
+        <v>3182</v>
+      </c>
+      <c r="E53" s="9">
+        <v>0.6</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="16" t="s">
-        <v>34</v>
+      <c r="A54" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2">
-        <v>5445</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="16"/>
-      <c r="B55" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55">
+      <c r="A55" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1">
+      <c r="A56" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13">
+        <v>208</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2">
         <v>1416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="16"/>
-      <c r="B56" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="11">
-        <v>292</v>
-      </c>
-      <c r="E56" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="16"/>
-      <c r="B57" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="11">
-        <v>651</v>
-      </c>
-      <c r="E57" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="F57" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="16"/>
-      <c r="B58" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="11">
-        <v>366</v>
-      </c>
-      <c r="E58" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="F58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="16"/>
-      <c r="B59" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="16"/>
-      <c r="B60" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="16"/>
-      <c r="B61" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61">
-        <f>C54-SUM(D55:D60)</f>
-        <v>2010</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2">
-        <v>3182</v>
-      </c>
-      <c r="E62" s="10">
-        <v>0.6</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2">
-        <v>283</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14">
-        <v>208</v>
-      </c>
-      <c r="D65" s="11"/>
-      <c r="E65" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>47</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2">
-        <v>2746</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2">
         <v>18518</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
-  <mergeCells count="1">
-    <mergeCell ref="A54:A61"/>
+  <autoFilter ref="A1:F67">
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="30%"/>
+        <filter val="50%"/>
+        <filter val="60%"/>
+        <filter val="80%"/>
+        <filter val="90%"/>
+        <filter val="99%"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="2">
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="A3:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1829,7 +1834,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1837,7 +1842,7 @@
       <c r="A2" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1845,7 +1850,7 @@
       <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1853,7 +1858,7 @@
       <c r="A4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1866,7 +1871,7 @@
       <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1874,7 +1879,7 @@
       <c r="A7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1892,7 +1897,7 @@
       <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1900,7 +1905,7 @@
       <c r="A11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>109</v>
       </c>
     </row>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="460" windowWidth="27200" windowHeight="23540"/>
+    <workbookView xWindow="10200" yWindow="460" windowWidth="26580" windowHeight="23540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="tcc 文章统计" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$F$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$F$71</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="116">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -531,6 +531,17 @@
     <t>不写</t>
     <rPh sb="0" eb="2">
       <t>bu'xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括 TraceFilter</t>
+    <rPh sb="0" eb="2">
+      <t>bao'kuo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -661,7 +672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,14 +718,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1040,10 +1054,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1083,7 +1097,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2"/>
@@ -1092,7 +1106,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" t="s">
         <v>84</v>
       </c>
@@ -1102,7 +1116,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="10" t="s">
         <v>85</v>
       </c>
@@ -1118,7 +1132,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="10" t="s">
         <v>86</v>
       </c>
@@ -1131,7 +1145,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" t="s">
         <v>87</v>
       </c>
@@ -1141,7 +1155,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" hidden="1">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="10" t="s">
         <v>88</v>
       </c>
@@ -1154,7 +1168,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" t="s">
         <v>89</v>
       </c>
@@ -1164,7 +1178,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" hidden="1">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="6" t="s">
         <v>90</v>
       </c>
@@ -1177,7 +1191,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" t="s">
         <v>91</v>
       </c>
@@ -1187,7 +1201,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" t="s">
         <v>92</v>
       </c>
@@ -1197,7 +1211,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" t="s">
         <v>93</v>
       </c>
@@ -1207,7 +1221,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" hidden="1">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="10" t="s">
         <v>94</v>
       </c>
@@ -1221,7 +1235,7 @@
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" hidden="1">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="10" t="s">
         <v>95</v>
       </c>
@@ -1234,7 +1248,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" t="s">
         <v>96</v>
       </c>
@@ -1244,7 +1258,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
       <c r="B17" t="s">
         <v>97</v>
       </c>
@@ -1425,12 +1439,12 @@
       <c r="A34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15">
         <v>461</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17" t="s">
+      <c r="D34" s="16"/>
+      <c r="E34" s="16" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1473,12 +1487,12 @@
       <c r="A38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15">
         <v>682</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17" t="s">
+      <c r="D38" s="16"/>
+      <c r="E38" s="16" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1495,12 +1509,12 @@
       <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15">
         <v>640</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17" t="s">
+      <c r="D40" s="16"/>
+      <c r="E40" s="16" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1534,12 +1548,12 @@
       <c r="A43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15">
         <v>1434</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17" t="s">
+      <c r="D43" s="16"/>
+      <c r="E43" s="16" t="s">
         <v>113</v>
       </c>
       <c r="F43" t="s">
@@ -1560,7 +1574,7 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B45" s="2"/>
@@ -1569,7 +1583,7 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="15"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="2" t="s">
         <v>49</v>
       </c>
@@ -1579,7 +1593,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" hidden="1">
-      <c r="A47" s="15"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="13" t="s">
         <v>50</v>
       </c>
@@ -1592,7 +1606,7 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="15"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="13" t="s">
         <v>51</v>
       </c>
@@ -1608,7 +1622,7 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="15"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="13" t="s">
         <v>52</v>
       </c>
@@ -1624,7 +1638,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="15"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="2" t="s">
         <v>53</v>
       </c>
@@ -1634,7 +1648,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="15"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="2" t="s">
         <v>54</v>
       </c>
@@ -1644,7 +1658,7 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="15"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="2" t="s">
         <v>55</v>
       </c>
@@ -1667,137 +1681,175 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2">
-        <v>283</v>
-      </c>
+      <c r="A54" s="3"/>
+      <c r="B54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="E54" s="9"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2">
-        <v>156</v>
-      </c>
+      <c r="A55" s="3"/>
+      <c r="B55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="E55" s="9"/>
     </row>
     <row r="56" spans="1:6" hidden="1">
-      <c r="A56" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13">
-        <v>208</v>
-      </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="12">
-        <v>1</v>
+      <c r="A56" s="3"/>
+      <c r="B56" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2">
-        <v>117</v>
-      </c>
+      <c r="A57" s="3"/>
+      <c r="B57" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="E57" s="9"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2">
-        <v>168</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" hidden="1">
       <c r="A60" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2">
-        <v>161</v>
+        <v>38</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13">
+        <v>208</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2">
-        <v>1416</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2">
-        <v>1232</v>
+        <v>900</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2">
-        <v>2746</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2">
-        <v>0</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="3" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2">
         <v>18518</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F67">
+  <autoFilter ref="A1:F71">
     <filterColumn colId="4">
       <filters blank="1">
         <filter val="30%"/>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -21,6 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$F$71</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1054,10 +1055,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1426,7 +1427,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
@@ -1435,7 +1436,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1">
+    <row r="34" spans="1:7" hidden="1">
       <c r="A34" s="3" t="s">
         <v>22</v>
       </c>
@@ -1448,7 +1449,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
         <v>23</v>
       </c>
@@ -1457,7 +1458,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1">
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36" s="3" t="s">
         <v>24</v>
       </c>
@@ -1470,7 +1471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -1483,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1">
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38" s="3" t="s">
         <v>27</v>
       </c>
@@ -1496,7 +1497,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
@@ -1504,8 +1505,11 @@
       <c r="C39" s="2">
         <v>650</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" hidden="1">
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1">
       <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
@@ -1518,7 +1522,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1">
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
@@ -1531,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1">
+    <row r="42" spans="1:7" hidden="1">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
@@ -1544,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1">
+    <row r="43" spans="1:7" hidden="1">
       <c r="A43" s="3" t="s">
         <v>32</v>
       </c>
@@ -1560,7 +1564,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1">
+    <row r="44" spans="1:7" hidden="1">
       <c r="A44" s="3" t="s">
         <v>33</v>
       </c>
@@ -1573,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:7">
       <c r="A45" s="18" t="s">
         <v>34</v>
       </c>
@@ -1582,7 +1586,7 @@
         <v>5445</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7">
       <c r="A46" s="18"/>
       <c r="B46" s="2" t="s">
         <v>49</v>
@@ -1592,7 +1596,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1">
+    <row r="47" spans="1:7" hidden="1">
       <c r="A47" s="18"/>
       <c r="B47" s="13" t="s">
         <v>50</v>
@@ -1605,7 +1609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7">
       <c r="A48" s="18"/>
       <c r="B48" s="13" t="s">
         <v>51</v>
@@ -1621,7 +1625,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:7">
       <c r="A49" s="18"/>
       <c r="B49" s="13" t="s">
         <v>52</v>
@@ -1637,7 +1641,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:7">
       <c r="A50" s="18"/>
       <c r="B50" s="2" t="s">
         <v>53</v>
@@ -1647,7 +1651,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:7">
       <c r="A51" s="18"/>
       <c r="B51" s="2" t="s">
         <v>54</v>
@@ -1657,7 +1661,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:7">
       <c r="A52" s="18"/>
       <c r="B52" s="2" t="s">
         <v>55</v>
@@ -1668,7 +1672,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
         <v>35</v>
       </c>
@@ -1680,7 +1684,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:7">
       <c r="A54" s="3"/>
       <c r="B54" s="2" t="s">
         <v>49</v>
@@ -1688,7 +1692,7 @@
       <c r="C54" s="2"/>
       <c r="E54" s="9"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:7">
       <c r="A55" s="3"/>
       <c r="B55" s="2" t="s">
         <v>93</v>
@@ -1696,7 +1700,7 @@
       <c r="C55" s="2"/>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:6" hidden="1">
+    <row r="56" spans="1:7" hidden="1">
       <c r="A56" s="3"/>
       <c r="B56" s="15" t="s">
         <v>114</v>
@@ -1710,7 +1714,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:7">
       <c r="A57" s="3"/>
       <c r="B57" s="2" t="s">
         <v>97</v>
@@ -1718,7 +1722,7 @@
       <c r="C57" s="2"/>
       <c r="E57" s="9"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:7">
       <c r="A58" s="3" t="s">
         <v>36</v>
       </c>
@@ -1726,8 +1730,11 @@
       <c r="C58" s="2">
         <v>283</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="3" t="s">
         <v>37</v>
       </c>
@@ -1735,8 +1742,11 @@
       <c r="C59" s="2">
         <v>156</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" hidden="1">
+      <c r="G59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1">
       <c r="A60" s="3" t="s">
         <v>38</v>
       </c>
@@ -1749,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:7">
       <c r="A61" s="3" t="s">
         <v>39</v>
       </c>
@@ -1757,8 +1767,11 @@
       <c r="C61" s="2">
         <v>117</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="3" t="s">
         <v>40</v>
       </c>
@@ -1766,8 +1779,11 @@
       <c r="C62" s="2">
         <v>168</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="3" t="s">
         <v>44</v>
       </c>
@@ -1775,8 +1791,11 @@
       <c r="C63" s="2">
         <v>900</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="3" t="s">
         <v>41</v>
       </c>
@@ -1784,8 +1803,11 @@
       <c r="C64" s="2">
         <v>161</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="G64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="3" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +1815,11 @@
       <c r="C65" s="2">
         <v>1416</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="G65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="3" t="s">
         <v>43</v>
       </c>
@@ -1803,7 +1828,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:7">
       <c r="A67" s="3" t="s">
         <v>45</v>
       </c>
@@ -1812,7 +1837,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:7">
       <c r="A68" s="3" t="s">
         <v>46</v>
       </c>
@@ -1821,7 +1846,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:7">
       <c r="A69" s="3" t="s">
         <v>47</v>
       </c>
@@ -1830,7 +1855,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:7">
       <c r="A70" s="3" t="s">
         <v>48</v>
       </c>
@@ -1839,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:7">
       <c r="A71" s="3" t="s">
         <v>20</v>
       </c>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -608,7 +608,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,6 +636,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,7 +693,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -753,6 +759,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,7 +1087,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E39" sqref="B39:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1511,13 +1526,17 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" hidden="1">
       <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22">
         <v>650</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24">
+        <v>1</v>
       </c>
       <c r="G39">
         <v>1</v>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="118">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E39" sqref="B39:E39"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1145,7 +1145,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" s="20"/>
       <c r="B5" s="10" t="s">
         <v>85</v>
@@ -1298,7 +1298,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="12">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1642,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" hidden="1">
       <c r="A48" s="18"/>
       <c r="B48" s="13" t="s">
         <v>51</v>
@@ -1652,7 +1652,7 @@
         <v>651</v>
       </c>
       <c r="E48" s="12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>111</v>
@@ -1694,15 +1694,18 @@
         <v>582</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" hidden="1">
       <c r="A52" s="18"/>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52">
+      <c r="C52" s="13"/>
+      <c r="D52" s="10">
         <f>C45-SUM(D46:D51)</f>
         <v>2010</v>
+      </c>
+      <c r="E52" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1849,19 +1852,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:5" hidden="1">
       <c r="A65" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2">
+      <c r="B65" s="22"/>
+      <c r="C65" s="22">
         <v>1416</v>
       </c>
-      <c r="G65">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="D65" s="23"/>
+      <c r="E65" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
         <v>43</v>
       </c>
@@ -1870,7 +1874,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:5">
       <c r="A67" s="3" t="s">
         <v>45</v>
       </c>
@@ -1879,7 +1883,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:5">
       <c r="A68" s="3" t="s">
         <v>46</v>
       </c>
@@ -1888,7 +1892,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:5">
       <c r="A69" s="3" t="s">
         <v>47</v>
       </c>
@@ -1897,7 +1901,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:5" hidden="1">
       <c r="A70" s="3" t="s">
         <v>48</v>
       </c>
@@ -1905,8 +1909,11 @@
       <c r="C70" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="E70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="3" t="s">
         <v>20</v>
       </c>
@@ -1924,7 +1931,6 @@
         <filter val="60%"/>
         <filter val="80%"/>
         <filter val="90%"/>
-        <filter val="99%"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -21,7 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$F$71</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -748,6 +747,15 @@
     <xf numFmtId="9" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -759,15 +767,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1087,7 +1086,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1127,7 +1126,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2"/>
@@ -1136,7 +1135,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="20"/>
+      <c r="A4" s="23"/>
       <c r="B4" t="s">
         <v>84</v>
       </c>
@@ -1146,7 +1145,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" hidden="1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="10" t="s">
         <v>85</v>
       </c>
@@ -1162,7 +1161,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="20"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="10" t="s">
         <v>86</v>
       </c>
@@ -1175,7 +1174,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="20"/>
+      <c r="A7" s="23"/>
       <c r="B7" t="s">
         <v>87</v>
       </c>
@@ -1185,7 +1184,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" hidden="1">
-      <c r="A8" s="20"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="10" t="s">
         <v>88</v>
       </c>
@@ -1198,7 +1197,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="20"/>
+      <c r="A9" s="23"/>
       <c r="B9" t="s">
         <v>89</v>
       </c>
@@ -1208,7 +1207,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" hidden="1">
-      <c r="A10" s="20"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="6" t="s">
         <v>90</v>
       </c>
@@ -1221,7 +1220,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="20"/>
+      <c r="A11" s="23"/>
       <c r="B11" t="s">
         <v>91</v>
       </c>
@@ -1231,7 +1230,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="20"/>
+      <c r="A12" s="23"/>
       <c r="B12" t="s">
         <v>92</v>
       </c>
@@ -1241,7 +1240,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="20"/>
+      <c r="A13" s="23"/>
       <c r="B13" t="s">
         <v>93</v>
       </c>
@@ -1251,7 +1250,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" hidden="1">
-      <c r="A14" s="20"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="10" t="s">
         <v>94</v>
       </c>
@@ -1265,7 +1264,7 @@
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" hidden="1">
-      <c r="A15" s="20"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="10" t="s">
         <v>95</v>
       </c>
@@ -1278,7 +1277,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="20"/>
+      <c r="A16" s="23"/>
       <c r="B16" t="s">
         <v>96</v>
       </c>
@@ -1288,7 +1287,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="21"/>
+      <c r="A17" s="24"/>
       <c r="B17" t="s">
         <v>97</v>
       </c>
@@ -1530,12 +1529,12 @@
       <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18">
         <v>650</v>
       </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24">
+      <c r="D39" s="19"/>
+      <c r="E39" s="20">
         <v>1</v>
       </c>
       <c r="G39">
@@ -1611,7 +1610,7 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B45" s="2"/>
@@ -1620,7 +1619,7 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="18"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="2" t="s">
         <v>49</v>
       </c>
@@ -1630,7 +1629,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" hidden="1">
-      <c r="A47" s="18"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="13" t="s">
         <v>50</v>
       </c>
@@ -1643,7 +1642,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" hidden="1">
-      <c r="A48" s="18"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="13" t="s">
         <v>51</v>
       </c>
@@ -1658,8 +1657,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="18"/>
+    <row r="49" spans="1:6">
+      <c r="A49" s="21"/>
       <c r="B49" s="13" t="s">
         <v>52</v>
       </c>
@@ -1674,8 +1673,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="18"/>
+    <row r="50" spans="1:6">
+      <c r="A50" s="21"/>
       <c r="B50" s="2" t="s">
         <v>53</v>
       </c>
@@ -1684,8 +1683,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="18"/>
+    <row r="51" spans="1:6">
+      <c r="A51" s="21"/>
       <c r="B51" s="2" t="s">
         <v>54</v>
       </c>
@@ -1694,8 +1693,8 @@
         <v>582</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1">
-      <c r="A52" s="18"/>
+    <row r="52" spans="1:6" hidden="1">
+      <c r="A52" s="21"/>
       <c r="B52" s="13" t="s">
         <v>55</v>
       </c>
@@ -1708,7 +1707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:6">
       <c r="A53" s="3" t="s">
         <v>35</v>
       </c>
@@ -1720,7 +1719,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1">
+    <row r="54" spans="1:6" hidden="1">
       <c r="A54" s="3"/>
       <c r="B54" s="15" t="s">
         <v>49</v>
@@ -1731,7 +1730,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:6">
       <c r="A55" s="3"/>
       <c r="B55" s="2" t="s">
         <v>93</v>
@@ -1739,7 +1738,7 @@
       <c r="C55" s="2"/>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:7" hidden="1">
+    <row r="56" spans="1:6" hidden="1">
       <c r="A56" s="3"/>
       <c r="B56" s="15" t="s">
         <v>114</v>
@@ -1753,7 +1752,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1">
+    <row r="57" spans="1:6" hidden="1">
       <c r="A57" s="3"/>
       <c r="B57" s="15" t="s">
         <v>97</v>
@@ -1767,31 +1766,33 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:6" hidden="1">
       <c r="A58" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2">
+      <c r="B58" s="13"/>
+      <c r="C58" s="13">
         <v>283</v>
       </c>
-      <c r="G58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="D58" s="10"/>
+      <c r="E58" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" hidden="1">
       <c r="A59" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2">
+      <c r="B59" s="13"/>
+      <c r="C59" s="13">
         <v>156</v>
       </c>
-      <c r="G59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1">
+      <c r="D59" s="10"/>
+      <c r="E59" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" hidden="1">
       <c r="A60" s="3" t="s">
         <v>38</v>
       </c>
@@ -1804,31 +1805,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:6" hidden="1">
       <c r="A61" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2">
+      <c r="B61" s="13"/>
+      <c r="C61" s="13">
         <v>117</v>
       </c>
-      <c r="G61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="D61" s="10"/>
+      <c r="E61" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1">
       <c r="A62" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2">
+      <c r="B62" s="13"/>
+      <c r="C62" s="13">
         <v>168</v>
       </c>
-      <c r="G62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="D62" s="10"/>
+      <c r="E62" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
         <v>44</v>
       </c>
@@ -1836,42 +1839,44 @@
       <c r="C63" s="2">
         <v>900</v>
       </c>
-      <c r="G63">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+    </row>
+    <row r="64" spans="1:6" hidden="1">
       <c r="A64" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2">
+      <c r="B64" s="13"/>
+      <c r="C64" s="13">
         <v>161</v>
       </c>
-      <c r="G64">
-        <v>7</v>
+      <c r="D64" s="10"/>
+      <c r="E64" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" hidden="1">
       <c r="A65" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22">
+      <c r="B65" s="18"/>
+      <c r="C65" s="18">
         <v>1416</v>
       </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23" t="s">
+      <c r="D65" s="19"/>
+      <c r="E65" s="19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" hidden="1">
       <c r="A66" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2">
+      <c r="B66" s="13"/>
+      <c r="C66" s="13">
         <v>151</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5">

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="460" windowWidth="26580" windowHeight="23540"/>
+    <workbookView xWindow="10200" yWindow="460" windowWidth="26580" windowHeight="23540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="协议" sheetId="4" r:id="rId2"/>
-    <sheet name="工作表2" sheetId="3" r:id="rId3"/>
-    <sheet name="tcc 文章统计" sheetId="2" r:id="rId4"/>
+    <sheet name="工作表3" sheetId="5" r:id="rId2"/>
+    <sheet name="协议" sheetId="4" r:id="rId3"/>
+    <sheet name="工作表2" sheetId="3" r:id="rId4"/>
+    <sheet name="tcc 文章统计" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$F$71</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="134">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -557,6 +558,60 @@
     <rPh sb="0" eb="2">
       <t>bu'fen</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseRestServer</t>
+  </si>
+  <si>
+    <t>DubboHttpServer</t>
+  </si>
+  <si>
+    <t>DubboResourceFactory</t>
+  </si>
+  <si>
+    <t>NettyServer</t>
+  </si>
+  <si>
+    <t>RestConstraintViolation</t>
+  </si>
+  <si>
+    <t>RestProtocol</t>
+  </si>
+  <si>
+    <t>RestServer</t>
+  </si>
+  <si>
+    <t>RestServerFactory</t>
+  </si>
+  <si>
+    <t>RpcContextFilter</t>
+  </si>
+  <si>
+    <t>RpcExceptionMapper</t>
+  </si>
+  <si>
+    <t>ViolationReport</t>
+  </si>
+  <si>
+    <t>ContentType</t>
+  </si>
+  <si>
+    <t>LoggingFilter</t>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能server</t>
+    <rPh sb="0" eb="2">
+      <t>ke'neng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +619,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -603,6 +658,13 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -692,7 +754,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +829,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1085,7 +1150,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
@@ -1951,6 +2016,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2045,7 +2227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C15"/>
   <sheetViews>
@@ -2133,7 +2315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="460" windowWidth="26580" windowHeight="23540" activeTab="1"/>
+    <workbookView xWindow="10200" yWindow="460" windowWidth="26580" windowHeight="23540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表3" sheetId="5" r:id="rId2"/>
-    <sheet name="协议" sheetId="4" r:id="rId3"/>
-    <sheet name="工作表2" sheetId="3" r:id="rId4"/>
-    <sheet name="tcc 文章统计" sheetId="2" r:id="rId5"/>
+    <sheet name="协议" sheetId="4" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="3" r:id="rId3"/>
+    <sheet name="tcc 文章统计" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$F$71</definedName>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="118">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -558,60 +557,6 @@
     <rPh sb="0" eb="2">
       <t>bu'fen</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseRestServer</t>
-  </si>
-  <si>
-    <t>DubboHttpServer</t>
-  </si>
-  <si>
-    <t>DubboResourceFactory</t>
-  </si>
-  <si>
-    <t>NettyServer</t>
-  </si>
-  <si>
-    <t>RestConstraintViolation</t>
-  </si>
-  <si>
-    <t>RestProtocol</t>
-  </si>
-  <si>
-    <t>RestServer</t>
-  </si>
-  <si>
-    <t>RestServerFactory</t>
-  </si>
-  <si>
-    <t>RpcContextFilter</t>
-  </si>
-  <si>
-    <t>RpcExceptionMapper</t>
-  </si>
-  <si>
-    <t>ViolationReport</t>
-  </si>
-  <si>
-    <t>ContentType</t>
-  </si>
-  <si>
-    <t>LoggingFilter</t>
-  </si>
-  <si>
-    <t>server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能server</t>
-    <rPh sb="0" eb="2">
-      <t>ke'neng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>validation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +564,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -658,13 +603,6 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -754,7 +692,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,9 +767,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1150,8 +1085,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1903,6 +1838,9 @@
       <c r="B63" s="2"/>
       <c r="C63" s="2">
         <v>900</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6" hidden="1">
@@ -2016,123 +1954,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2227,7 +2048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C15"/>
   <sheetViews>
@@ -2315,7 +2136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="118">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1086,7 +1086,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1455,7 +1455,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
@@ -1463,6 +1463,10 @@
       <c r="C33" s="2">
         <v>247</v>
       </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="34" spans="1:7" hidden="1">
       <c r="A34" s="3" t="s">
@@ -1477,13 +1481,16 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2">
         <v>669</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" hidden="1">
@@ -1831,15 +1838,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" hidden="1">
       <c r="A63" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2">
+      <c r="B63" s="13"/>
+      <c r="C63" s="13">
         <v>900</v>
       </c>
-      <c r="E63" s="4">
+      <c r="D63" s="10"/>
+      <c r="E63" s="12">
         <v>1</v>
       </c>
     </row>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -21,6 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$F$71</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="119">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -557,6 +558,10 @@
     <rPh sb="0" eb="2">
       <t>bu'fen</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%：JDK 编译不写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1086,7 +1091,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1160,17 +1165,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" s="23"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15">
         <v>987</v>
       </c>
-      <c r="E6" s="12">
-        <v>0.5</v>
+      <c r="E6" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1680,14 +1688,17 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" hidden="1">
       <c r="A50" s="21"/>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50">
+      <c r="C50" s="13"/>
+      <c r="D50" s="10">
         <v>128</v>
+      </c>
+      <c r="E50" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1943,7 +1954,6 @@
     <filterColumn colId="4">
       <filters blank="1">
         <filter val="30%"/>
-        <filter val="50%"/>
         <filter val="60%"/>
         <filter val="80%"/>
         <filter val="90%"/>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="460" windowWidth="26580" windowHeight="23540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="36780" windowHeight="23540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="协议" sheetId="4" r:id="rId2"/>
-    <sheet name="工作表2" sheetId="3" r:id="rId3"/>
-    <sheet name="tcc 文章统计" sheetId="2" r:id="rId4"/>
+    <sheet name="拓展" sheetId="3" r:id="rId3"/>
+    <sheet name="过滤器" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$F$71</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="142">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,49 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> TCC-Transaction 源码分析 —— 调试环境搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCC-Transaction 源码分析 —— TCC 实现</t>
-  </si>
-  <si>
-    <t>TCC-Transaction 源码分析 —— 事务存储器</t>
-  </si>
-  <si>
-    <t>TCC-Transaction 源码分析 —— 事务恢复</t>
-  </si>
-  <si>
-    <t>TCC-Transaction 源码分析 —— 运维平台</t>
-  </si>
-  <si>
-    <t>TCC-Transaction 源码分析 —— Dubbo 支持</t>
-  </si>
-  <si>
-    <t>TCC-Transaction 源码分析 —— 项目实战</t>
-  </si>
-  <si>
-    <t>【合计】</t>
-    <rPh sb="0" eb="1">
-      <t>que</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题</t>
-    <rPh sb="0" eb="2">
-      <t>biao'ti</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字数</t>
-    <rPh sb="0" eb="2">
-      <t>zi'shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ExtensionFactory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,13 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本地存根 StubProxyFactory</t>
-    <rPh sb="0" eb="2">
-      <t>ben'di</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dubbo-api-default</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -562,6 +512,172 @@
   </si>
   <si>
     <t>50%：JDK 编译不写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤器</t>
+    <rPh sb="0" eb="3">
+      <t>guo'lv'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务消费者</t>
+    <rPh sb="0" eb="2">
+      <t>fu'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务提供者</t>
+    <rPh sb="0" eb="2">
+      <t>fu'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccessLogFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActiveLimitFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassLoaderFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompatibleFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="71">
+      <t>yi'jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章</t>
+    <rPh sb="0" eb="2">
+      <t>wen'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConsumerContextFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContextFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeprecatedFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EchoFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《精尽 Dubbo 源码解析 —— 调用特性（一）之回音测试》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExceptionFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExecuteLimitFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GenericFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GenericImplFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《精尽 Dubbo 源码解析 —— 调用特性（二）之泛化引用》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《精尽 Dubbo 源码解析 —— 调用特性（三）之泛化实现》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeoutFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TokenFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TpsLimitFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FutureFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《精尽 Dubbo 源码解析 —— 服务调用（二）之远程调用（Dubbo）【3】异步调用》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TraceFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dubbo Echo Trace 指令使用，暂时不写</t>
+    <rPh sb="0" eb="2">
+      <t>zhi'ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonitorFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否完成</t>
+    <rPh sb="0" eb="1">
+      <t>xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以 JavaBeanDescriptor 为中心</t>
+    <rPh sb="0" eb="2">
+      <t>yi'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不写</t>
+    <rPh sb="0" eb="2">
+      <t>zan'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容性 Filter 。目前未开启 Dubbo SPI @Adaptive 注解</t>
+    <rPh sb="0" eb="3">
+      <t>jian'rong'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IGNORE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +728,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,8 +765,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -691,13 +819,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,6 +935,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1090,8 +1277,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1139,20 +1326,26 @@
         <v>23757</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" s="23"/>
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4">
+      <c r="B4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="16">
         <v>635</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6" hidden="1">
       <c r="A5" s="23"/>
       <c r="B5" s="10" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="10">
@@ -1162,29 +1355,29 @@
         <v>0.99</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" hidden="1">
       <c r="A6" s="23"/>
       <c r="B6" s="15" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15">
         <v>987</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="23"/>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7">
@@ -1194,7 +1387,7 @@
     <row r="8" spans="1:6" hidden="1">
       <c r="A8" s="23"/>
       <c r="B8" s="10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="10">
@@ -1207,7 +1400,7 @@
     <row r="9" spans="1:6">
       <c r="A9" s="23"/>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9">
@@ -1217,20 +1410,20 @@
     <row r="10" spans="1:6" hidden="1">
       <c r="A10" s="23"/>
       <c r="B10" s="6" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8">
         <v>3225</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="23"/>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11">
@@ -1240,7 +1433,7 @@
     <row r="12" spans="1:6">
       <c r="A12" s="23"/>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12">
@@ -1250,7 +1443,7 @@
     <row r="13" spans="1:6">
       <c r="A13" s="23"/>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13">
@@ -1260,7 +1453,7 @@
     <row r="14" spans="1:6" hidden="1">
       <c r="A14" s="23"/>
       <c r="B14" s="10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="10">
@@ -1274,7 +1467,7 @@
     <row r="15" spans="1:6" hidden="1">
       <c r="A15" s="23"/>
       <c r="B15" s="10" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="10">
@@ -1287,7 +1480,7 @@
     <row r="16" spans="1:6">
       <c r="A16" s="23"/>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16">
@@ -1297,7 +1490,7 @@
     <row r="17" spans="1:6">
       <c r="A17" s="24"/>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17">
@@ -1460,7 +1653,7 @@
         <v>0.8</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:7" hidden="1">
@@ -1473,7 +1666,7 @@
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:7" hidden="1">
@@ -1486,7 +1679,7 @@
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:7" hidden="1">
@@ -1537,7 +1730,7 @@
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:7" hidden="1">
@@ -1566,7 +1759,7 @@
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:7" hidden="1">
@@ -1605,10 +1798,10 @@
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="16" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F43" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:7" hidden="1">
@@ -1669,10 +1862,10 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1">
       <c r="A49" s="21"/>
       <c r="B49" s="13" t="s">
         <v>52</v>
@@ -1682,10 +1875,7 @@
         <v>366</v>
       </c>
       <c r="E49" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="F49" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6" hidden="1">
@@ -1737,7 +1927,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1">
+    <row r="54" spans="1:6">
       <c r="A54" s="3"/>
       <c r="B54" s="15" t="s">
         <v>49</v>
@@ -1745,13 +1935,13 @@
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3"/>
       <c r="B55" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C55" s="2"/>
       <c r="E55" s="9"/>
@@ -1759,29 +1949,29 @@
     <row r="56" spans="1:6" hidden="1">
       <c r="A56" s="3"/>
       <c r="B56" s="15" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="16"/>
       <c r="E56" s="17" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F56" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:6" hidden="1">
       <c r="A57" s="3"/>
       <c r="B57" s="15" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F57" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:6" hidden="1">
@@ -1885,7 +2075,7 @@
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="19" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:5" hidden="1">
@@ -1954,7 +2144,6 @@
     <filterColumn colId="4">
       <filters blank="1">
         <filter val="30%"/>
-        <filter val="60%"/>
         <filter val="80%"/>
         <filter val="90%"/>
       </filters>
@@ -1986,15 +2175,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="14" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="64">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48">
@@ -2002,7 +2191,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32">
@@ -2010,7 +2199,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2023,7 +2212,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2031,7 +2220,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2049,7 +2238,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="32">
@@ -2057,7 +2246,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2082,70 +2271,70 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2156,93 +2345,247 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="62" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="84.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:7">
+      <c r="B1" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2">
-        <v>3777</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>140</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="29">
+        <v>-110000</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3">
-        <v>43270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4">
-        <v>17591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>140</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27">
+        <v>-30000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="28">
+        <v>-10000</v>
+      </c>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5">
-        <v>11989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6">
-        <v>10240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7">
-        <v>40401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8">
-        <v>30091</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12">
-        <f>SUM(B2:B8)</f>
-        <v>157359</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27">
+        <v>-20000</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="F9" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0</v>
+      </c>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="28">
+        <v>20000</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="F18" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="143">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -678,6 +678,13 @@
   </si>
   <si>
     <t>IGNORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TraceFilter</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1278,7 +1285,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1936,6 +1943,9 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15" t="s">
         <v>106</v>
+      </c>
+      <c r="F54" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2348,7 +2358,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2407,6 +2417,9 @@
       </c>
     </row>
     <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
       <c r="B4" s="31" t="s">
         <v>117</v>
       </c>
@@ -2431,6 +2444,9 @@
       </c>
     </row>
     <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
       <c r="B6" s="31" t="s">
         <v>118</v>
       </c>
@@ -2440,6 +2456,9 @@
       </c>
     </row>
     <row r="7" spans="1:7">
+      <c r="A7">
+        <v>1</v>
+      </c>
       <c r="B7" s="31" t="s">
         <v>111</v>
       </c>
@@ -2449,6 +2468,9 @@
       </c>
     </row>
     <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2</v>
+      </c>
       <c r="B8" s="31" t="s">
         <v>123</v>
       </c>
@@ -2473,6 +2495,9 @@
       </c>
     </row>
     <row r="10" spans="1:7">
+      <c r="A10">
+        <v>3</v>
+      </c>
       <c r="B10" s="31" t="s">
         <v>112</v>
       </c>
@@ -2497,6 +2522,9 @@
       </c>
     </row>
     <row r="12" spans="1:7">
+      <c r="A12">
+        <v>4</v>
+      </c>
       <c r="B12" s="31" t="s">
         <v>128</v>
       </c>
@@ -2506,6 +2534,9 @@
       </c>
     </row>
     <row r="13" spans="1:7">
+      <c r="A13">
+        <v>5</v>
+      </c>
       <c r="B13" s="31" t="s">
         <v>135</v>
       </c>
@@ -2517,6 +2548,9 @@
       </c>
     </row>
     <row r="14" spans="1:7">
+      <c r="A14">
+        <v>6</v>
+      </c>
       <c r="B14" s="31" t="s">
         <v>119</v>
       </c>
@@ -2526,6 +2560,9 @@
       <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:7">
+      <c r="A15">
+        <v>7</v>
+      </c>
       <c r="B15" s="31" t="s">
         <v>122</v>
       </c>
@@ -2535,6 +2572,9 @@
       </c>
     </row>
     <row r="16" spans="1:7">
+      <c r="A16">
+        <v>8</v>
+      </c>
       <c r="B16" s="31" t="s">
         <v>129</v>
       </c>
@@ -2544,6 +2584,9 @@
       </c>
     </row>
     <row r="17" spans="1:6">
+      <c r="A17">
+        <v>9</v>
+      </c>
       <c r="B17" s="31" t="s">
         <v>130</v>
       </c>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="143">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2358,7 +2358,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2456,8 +2456,8 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7">
-        <v>1</v>
+      <c r="A7" t="s">
+        <v>140</v>
       </c>
       <c r="B7" s="31" t="s">
         <v>111</v>
@@ -2468,7 +2468,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8">
+      <c r="A8" s="10">
         <v>2</v>
       </c>
       <c r="B8" s="31" t="s">
@@ -2495,7 +2495,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10">
+      <c r="A10" s="10">
         <v>3</v>
       </c>
       <c r="B10" s="31" t="s">

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="143">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -867,7 +867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -942,6 +942,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1285,7 +1288,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1338,7 +1341,7 @@
       <c r="B4" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="16">
         <v>635</v>
       </c>
@@ -2358,7 +2361,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2370,19 +2373,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>116</v>
       </c>
       <c r="G1" t="s">
@@ -2393,14 +2396,14 @@
       <c r="A2" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="29">
+      <c r="C2" s="27"/>
+      <c r="D2" s="30">
         <v>-110000</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="26" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2408,11 +2411,11 @@
       <c r="A3" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27">
+      <c r="C3" s="27"/>
+      <c r="D3" s="28">
         <v>-30000</v>
       </c>
     </row>
@@ -2420,26 +2423,26 @@
       <c r="A4" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="29">
         <v>-10000</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27">
+      <c r="C5" s="27"/>
+      <c r="D5" s="28">
         <v>-20000</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="26" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2447,11 +2450,11 @@
       <c r="A6" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27">
+      <c r="C6" s="27"/>
+      <c r="D6" s="28">
         <v>-10000</v>
       </c>
     </row>
@@ -2459,23 +2462,23 @@
       <c r="A7" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27">
+      <c r="C7" s="27"/>
+      <c r="D7" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="10">
-        <v>2</v>
-      </c>
-      <c r="B8" s="31" t="s">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27">
+      <c r="C8" s="27"/>
+      <c r="D8" s="28">
         <v>0</v>
       </c>
     </row>
@@ -2483,38 +2486,38 @@
       <c r="A9" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="29">
         <v>0</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="F9" s="25" t="s">
+      <c r="D9" s="27"/>
+      <c r="F9" s="26" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="10">
-        <v>3</v>
-      </c>
-      <c r="B10" s="31" t="s">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="29">
         <v>0</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" t="s">
+      <c r="A11" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27">
+      <c r="C11" s="27"/>
+      <c r="D11" s="28">
         <v>0</v>
       </c>
       <c r="E11" t="s">
@@ -2522,14 +2525,14 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" s="31" t="s">
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27">
+      <c r="C12" s="27"/>
+      <c r="D12" s="28">
         <v>0</v>
       </c>
     </row>
@@ -2537,61 +2540,61 @@
       <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="29">
         <v>0</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14">
+      <c r="A14" s="25">
         <v>6</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="29">
         <v>0</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15">
+      <c r="A15" s="25">
         <v>7</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27">
+      <c r="C15" s="27"/>
+      <c r="D15" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16">
+      <c r="A16" s="25">
         <v>8</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27">
+      <c r="C16" s="27"/>
+      <c r="D16" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17">
+      <c r="A17" s="25">
         <v>9</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27">
+      <c r="C17" s="27"/>
+      <c r="D17" s="28">
         <v>0</v>
       </c>
     </row>
@@ -2599,33 +2602,33 @@
       <c r="A18" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="29">
         <v>20000</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="F18" s="25" t="s">
+      <c r="D18" s="27"/>
+      <c r="F18" s="26" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" t="s">
+      <c r="A19" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="144">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -684,6 +684,13 @@
     <t>TraceFilter</t>
     <rPh sb="0" eb="1">
       <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余 Mock</t>
+    <rPh sb="0" eb="2">
+      <t>sheng'yu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1288,7 +1295,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1910,6 +1917,9 @@
       <c r="D51">
         <v>582</v>
       </c>
+      <c r="F51" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="52" spans="1:6" hidden="1">
       <c r="A52" s="21"/>
@@ -1937,7 +1947,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" hidden="1">
       <c r="A54" s="3"/>
       <c r="B54" s="15" t="s">
         <v>49</v>
@@ -2361,7 +2371,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2551,8 +2561,8 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="25">
-        <v>6</v>
+      <c r="A14" t="s">
+        <v>140</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>119</v>
@@ -2563,8 +2573,8 @@
       <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="25">
-        <v>7</v>
+      <c r="A15" t="s">
+        <v>140</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>122</v>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="144">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -742,7 +742,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -788,6 +788,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,9 +956,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -975,6 +978,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1348,7 +1354,7 @@
       <c r="B4" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="16">
         <v>635</v>
       </c>
@@ -2371,7 +2377,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2383,19 +2389,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>116</v>
       </c>
       <c r="G1" t="s">
@@ -2406,14 +2412,14 @@
       <c r="A2" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="30">
+      <c r="C2" s="26"/>
+      <c r="D2" s="29">
         <v>-110000</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2421,11 +2427,11 @@
       <c r="A3" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28">
+      <c r="C3" s="26"/>
+      <c r="D3" s="27">
         <v>-30000</v>
       </c>
     </row>
@@ -2433,26 +2439,26 @@
       <c r="A4" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>-10000</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28">
+      <c r="C5" s="26"/>
+      <c r="D5" s="27">
         <v>-20000</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2460,11 +2466,11 @@
       <c r="A6" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28">
+      <c r="C6" s="26"/>
+      <c r="D6" s="27">
         <v>-10000</v>
       </c>
     </row>
@@ -2472,11 +2478,11 @@
       <c r="A7" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28">
+      <c r="C7" s="26"/>
+      <c r="D7" s="27">
         <v>0</v>
       </c>
     </row>
@@ -2484,11 +2490,11 @@
       <c r="A8" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28">
+      <c r="C8" s="26"/>
+      <c r="D8" s="27">
         <v>0</v>
       </c>
     </row>
@@ -2496,14 +2502,14 @@
       <c r="A9" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <v>0</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="F9" s="26" t="s">
+      <c r="D9" s="26"/>
+      <c r="F9" s="25" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2511,23 +2517,23 @@
       <c r="A10" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <v>0</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28">
+      <c r="C11" s="26"/>
+      <c r="D11" s="27">
         <v>0</v>
       </c>
       <c r="E11" t="s">
@@ -2538,25 +2544,25 @@
       <c r="A12" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28">
+      <c r="C12" s="26"/>
+      <c r="D12" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13">
+      <c r="A13" s="33">
         <v>5</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="28">
         <v>0</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>0</v>
       </c>
     </row>
@@ -2564,47 +2570,47 @@
       <c r="A14" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="28">
         <v>0</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28">
+      <c r="C15" s="26"/>
+      <c r="D15" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="25">
-        <v>8</v>
-      </c>
-      <c r="B16" s="32" t="s">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28">
+      <c r="C16" s="26"/>
+      <c r="D16" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="25">
-        <v>9</v>
-      </c>
-      <c r="B17" s="32" t="s">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28">
+      <c r="C17" s="26"/>
+      <c r="D17" s="27">
         <v>0</v>
       </c>
     </row>
@@ -2612,33 +2618,33 @@
       <c r="A18" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="28">
         <v>20000</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="F18" s="26" t="s">
+      <c r="D18" s="26"/>
+      <c r="F18" s="25" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="36780" windowHeight="23540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="36780" windowHeight="23540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="146">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -692,6 +692,14 @@
     <rPh sb="0" eb="2">
       <t>sheng'yu</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CacheFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValidationFilter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,7 +806,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -874,13 +882,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -982,6 +1014,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1300,8 +1341,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1618,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" hidden="1">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -1626,6 +1667,9 @@
       <c r="C27" s="2">
         <v>434</v>
       </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
@@ -1840,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" hidden="1">
       <c r="A45" s="21" t="s">
         <v>34</v>
       </c>
@@ -1848,8 +1892,11 @@
       <c r="C45" s="2">
         <v>5445</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1">
       <c r="A46" s="21"/>
       <c r="B46" s="2" t="s">
         <v>49</v>
@@ -1857,6 +1904,9 @@
       <c r="C46" s="2"/>
       <c r="D46">
         <v>1416</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" hidden="1">
@@ -1941,8 +1991,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:6" hidden="1">
+      <c r="A53" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B53" s="2"/>
@@ -1950,11 +2000,11 @@
         <v>3182</v>
       </c>
       <c r="E53" s="9">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" hidden="1">
-      <c r="A54" s="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16" hidden="1" customHeight="1">
+      <c r="A54" s="35"/>
       <c r="B54" s="15" t="s">
         <v>49</v>
       </c>
@@ -1968,7 +2018,7 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="3"/>
+      <c r="A55" s="36"/>
       <c r="B55" s="2" t="s">
         <v>83</v>
       </c>
@@ -2174,13 +2224,13 @@
       <filters blank="1">
         <filter val="30%"/>
         <filter val="80%"/>
-        <filter val="90%"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A45:A52"/>
     <mergeCell ref="A3:A17"/>
+    <mergeCell ref="A53:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2374,10 +2424,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2619,32 +2669,57 @@
         <v>140</v>
       </c>
       <c r="B18" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="27">
+        <v>0</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="28">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C20" s="28">
         <v>20000</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="F18" s="25" t="s">
+      <c r="D20" s="26"/>
+      <c r="F20" s="25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="25" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B21" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="10" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+    <row r="22" spans="1:6">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/source/_drafts/Dubbo/dubbo 代码统计.xlsx
+++ b/source/_drafts/Dubbo/dubbo 代码统计.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="36780" windowHeight="23540"/>
+    <workbookView xWindow="11500" yWindow="460" windowWidth="25280" windowHeight="23540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="协议" sheetId="4" r:id="rId2"/>
     <sheet name="拓展" sheetId="3" r:id="rId3"/>
     <sheet name="过滤器" sheetId="5" r:id="rId4"/>
+    <sheet name="序列化" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$F$71</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="155">
   <si>
     <t>dubbo-cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -700,6 +701,45 @@
   </si>
   <si>
     <t>ValidationFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dubbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hessian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kyro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nativejava</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊</t>
+    <rPh sb="0" eb="2">
+      <t>te'shu</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1342,7 +1382,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1671,13 +1711,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13">
         <v>529</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2427,7 +2471,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2679,6 +2723,9 @@
       </c>
     </row>
     <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>140</v>
+      </c>
       <c r="B19" s="31" t="s">
         <v>145</v>
       </c>
@@ -2720,6 +2767,68 @@
     <row r="22" spans="1:6">
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
